--- a/data/536/BIDN/SDDS/old/CGOVOP.xlsx
+++ b/data/536/BIDN/SDDS/old/CGOVOP.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Central Government Operations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Central Government Operations'!$D$260:$O$309</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Central Government Operations'!$D$260:$O$311</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Central Government Operations'!$244:$246</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="80">
   <si>
     <t xml:space="preserve">CENTRAL GOVERNMENT OPERATIONS </t>
   </si>
@@ -310,7 +310,7 @@
     <t>Desember</t>
   </si>
   <si>
-    <t>30/09/2021</t>
+    <t>30/11/2021</t>
   </si>
 </sst>
 </file>
@@ -1471,39 +1471,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="27" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="28" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="21" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="32" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="27" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="28" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="33" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,22 +1480,10 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="21" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="32" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="38" borderId="6" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,6 +1526,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="36" borderId="23" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="27" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="28" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="29" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="30" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="31" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="25" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="26" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="27" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="28" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="33" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2005,12 +2005,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O310"/>
+  <dimension ref="A1:O312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C239" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D239" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C239" sqref="C239"/>
-      <selection pane="bottomLeft" activeCell="K309" sqref="K309"/>
+      <selection pane="bottomLeft" activeCell="J312" sqref="J312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2027,21 +2027,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:10" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -2053,69 +2053,69 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="90"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="93"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="94" t="s">
+      <c r="I6" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="83" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="99"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="77">
+      <c r="D8" s="66">
         <v>1999</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D9" s="15" t="s">
@@ -2325,15 +2325,15 @@
       </c>
     </row>
     <row r="18" spans="4:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="77">
+      <c r="D18" s="66">
         <v>2000</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="4:10" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D19" s="15" t="s">
@@ -2612,15 +2612,15 @@
       </c>
     </row>
     <row r="31" spans="4:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="77">
+      <c r="D31" s="66">
         <v>2001</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="4:10" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D32" s="15" t="s">
@@ -2899,15 +2899,15 @@
       </c>
     </row>
     <row r="44" spans="4:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="77">
+      <c r="D44" s="66">
         <v>2002</v>
       </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" spans="4:10" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D45" s="15" t="s">
@@ -3186,15 +3186,15 @@
       </c>
     </row>
     <row r="57" spans="4:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D57" s="77">
+      <c r="D57" s="66">
         <v>2003</v>
       </c>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="79"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="68"/>
     </row>
     <row r="58" spans="4:10" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D58" s="15" t="s">
@@ -3473,15 +3473,15 @@
       </c>
     </row>
     <row r="70" spans="4:10" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D70" s="77">
+      <c r="D70" s="66">
         <v>2004</v>
       </c>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="79"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="68"/>
     </row>
     <row r="71" spans="4:10" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D71" s="15" t="s">
@@ -3760,15 +3760,15 @@
       </c>
     </row>
     <row r="83" spans="1:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D83" s="77">
+      <c r="D83" s="66">
         <v>2005</v>
       </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="79"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="68"/>
     </row>
     <row r="84" spans="1:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D84" s="15" t="s">
@@ -4048,84 +4048,84 @@
     </row>
     <row r="96" spans="1:12" s="36" customFormat="1" ht="28.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
-      <c r="D96" s="80" t="s">
+      <c r="D96" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="81"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="81"/>
-      <c r="H96" s="81"/>
-      <c r="I96" s="81"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="81"/>
-      <c r="L96" s="82"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="90"/>
+      <c r="G96" s="90"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="90"/>
+      <c r="J96" s="90"/>
+      <c r="K96" s="90"/>
+      <c r="L96" s="91"/>
     </row>
     <row r="97" spans="1:12" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
-      <c r="D97" s="83" t="s">
+      <c r="D97" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="85"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="94"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D98" s="76" t="s">
+      <c r="D98" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="76" t="s">
+      <c r="E98" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="F98" s="76" t="s">
+      <c r="F98" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="76" t="s">
+      <c r="G98" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H98" s="76" t="s">
+      <c r="H98" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I98" s="76" t="s">
+      <c r="I98" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J98" s="76" t="s">
+      <c r="J98" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="K98" s="76" t="s">
+      <c r="K98" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L98" s="76" t="s">
+      <c r="L98" s="88" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
-      <c r="K99" s="71"/>
-      <c r="L99" s="71"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
     </row>
     <row r="100" spans="1:12" s="33" customFormat="1" ht="18" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D100" s="77">
+      <c r="D100" s="66">
         <v>2006</v>
       </c>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="78"/>
-      <c r="K100" s="78"/>
-      <c r="L100" s="79"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="67"/>
+      <c r="L100" s="68"/>
     </row>
     <row r="101" spans="1:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="D101" s="15" t="s">
@@ -4476,17 +4476,17 @@
       </c>
     </row>
     <row r="113" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D113" s="77" t="s">
+      <c r="D113" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E113" s="78"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="78"/>
-      <c r="I113" s="78"/>
-      <c r="J113" s="78"/>
-      <c r="K113" s="78"/>
-      <c r="L113" s="79"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="67"/>
+      <c r="G113" s="67"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="67"/>
+      <c r="J113" s="67"/>
+      <c r="K113" s="67"/>
+      <c r="L113" s="68"/>
     </row>
     <row r="114" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D114" s="15" t="s">
@@ -4837,17 +4837,17 @@
       </c>
     </row>
     <row r="126" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D126" s="77" t="s">
+      <c r="D126" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E126" s="78"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
-      <c r="H126" s="78"/>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
-      <c r="K126" s="78"/>
-      <c r="L126" s="79"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="67"/>
+      <c r="H126" s="67"/>
+      <c r="I126" s="67"/>
+      <c r="J126" s="67"/>
+      <c r="K126" s="67"/>
+      <c r="L126" s="68"/>
     </row>
     <row r="127" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D127" s="15" t="s">
@@ -5198,17 +5198,17 @@
       </c>
     </row>
     <row r="139" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D139" s="77">
+      <c r="D139" s="66">
         <v>2009</v>
       </c>
-      <c r="E139" s="78"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
-      <c r="H139" s="78"/>
-      <c r="I139" s="78"/>
-      <c r="J139" s="78"/>
-      <c r="K139" s="78"/>
-      <c r="L139" s="79"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="67"/>
+      <c r="H139" s="67"/>
+      <c r="I139" s="67"/>
+      <c r="J139" s="67"/>
+      <c r="K139" s="67"/>
+      <c r="L139" s="68"/>
     </row>
     <row r="140" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D140" s="15" t="s">
@@ -5559,17 +5559,17 @@
       </c>
     </row>
     <row r="152" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D152" s="77">
+      <c r="D152" s="66">
         <v>2010</v>
       </c>
-      <c r="E152" s="78"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
-      <c r="H152" s="78"/>
-      <c r="I152" s="78"/>
-      <c r="J152" s="78"/>
-      <c r="K152" s="78"/>
-      <c r="L152" s="79"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="67"/>
+      <c r="G152" s="67"/>
+      <c r="H152" s="67"/>
+      <c r="I152" s="67"/>
+      <c r="J152" s="67"/>
+      <c r="K152" s="67"/>
+      <c r="L152" s="68"/>
     </row>
     <row r="153" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D153" s="15" t="s">
@@ -5920,17 +5920,17 @@
       </c>
     </row>
     <row r="165" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D165" s="72">
+      <c r="D165" s="85">
         <v>2011</v>
       </c>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
-      <c r="I165" s="73"/>
-      <c r="J165" s="73"/>
-      <c r="K165" s="73"/>
-      <c r="L165" s="74"/>
+      <c r="E165" s="86"/>
+      <c r="F165" s="86"/>
+      <c r="G165" s="86"/>
+      <c r="H165" s="86"/>
+      <c r="I165" s="86"/>
+      <c r="J165" s="86"/>
+      <c r="K165" s="86"/>
+      <c r="L165" s="87"/>
     </row>
     <row r="166" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D166" s="19" t="s">
@@ -6281,17 +6281,17 @@
       </c>
     </row>
     <row r="178" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D178" s="72">
+      <c r="D178" s="85">
         <v>2012</v>
       </c>
-      <c r="E178" s="73"/>
-      <c r="F178" s="73"/>
-      <c r="G178" s="73"/>
-      <c r="H178" s="73"/>
-      <c r="I178" s="73"/>
-      <c r="J178" s="73"/>
-      <c r="K178" s="73"/>
-      <c r="L178" s="74"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="86"/>
+      <c r="G178" s="86"/>
+      <c r="H178" s="86"/>
+      <c r="I178" s="86"/>
+      <c r="J178" s="86"/>
+      <c r="K178" s="86"/>
+      <c r="L178" s="87"/>
     </row>
     <row r="179" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D179" s="19" t="s">
@@ -6642,17 +6642,17 @@
       </c>
     </row>
     <row r="191" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D191" s="67">
+      <c r="D191" s="96">
         <v>2013</v>
       </c>
-      <c r="E191" s="68"/>
-      <c r="F191" s="68"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="68"/>
-      <c r="I191" s="68"/>
-      <c r="J191" s="68"/>
-      <c r="K191" s="68"/>
-      <c r="L191" s="69"/>
+      <c r="E191" s="97"/>
+      <c r="F191" s="97"/>
+      <c r="G191" s="97"/>
+      <c r="H191" s="97"/>
+      <c r="I191" s="97"/>
+      <c r="J191" s="97"/>
+      <c r="K191" s="97"/>
+      <c r="L191" s="98"/>
     </row>
     <row r="192" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D192" s="19" t="s">
@@ -7003,17 +7003,17 @@
       </c>
     </row>
     <row r="204" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D204" s="67">
+      <c r="D204" s="96">
         <v>2014</v>
       </c>
-      <c r="E204" s="68"/>
-      <c r="F204" s="68"/>
-      <c r="G204" s="68"/>
-      <c r="H204" s="68"/>
-      <c r="I204" s="68"/>
-      <c r="J204" s="68"/>
-      <c r="K204" s="68"/>
-      <c r="L204" s="69"/>
+      <c r="E204" s="97"/>
+      <c r="F204" s="97"/>
+      <c r="G204" s="97"/>
+      <c r="H204" s="97"/>
+      <c r="I204" s="97"/>
+      <c r="J204" s="97"/>
+      <c r="K204" s="97"/>
+      <c r="L204" s="98"/>
     </row>
     <row r="205" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D205" s="19" t="s">
@@ -7364,17 +7364,17 @@
       </c>
     </row>
     <row r="217" spans="4:12" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D217" s="67" t="s">
+      <c r="D217" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="E217" s="68"/>
-      <c r="F217" s="68"/>
-      <c r="G217" s="68"/>
-      <c r="H217" s="68"/>
-      <c r="I217" s="68"/>
-      <c r="J217" s="68"/>
-      <c r="K217" s="68"/>
-      <c r="L217" s="69"/>
+      <c r="E217" s="97"/>
+      <c r="F217" s="97"/>
+      <c r="G217" s="97"/>
+      <c r="H217" s="97"/>
+      <c r="I217" s="97"/>
+      <c r="J217" s="97"/>
+      <c r="K217" s="97"/>
+      <c r="L217" s="98"/>
     </row>
     <row r="218" spans="4:12" s="16" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D218" s="19" t="s">
@@ -7725,17 +7725,17 @@
       </c>
     </row>
     <row r="230" spans="4:14" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D230" s="67" t="s">
+      <c r="D230" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="E230" s="68"/>
-      <c r="F230" s="68"/>
-      <c r="G230" s="68"/>
-      <c r="H230" s="68"/>
-      <c r="I230" s="68"/>
-      <c r="J230" s="68"/>
-      <c r="K230" s="68"/>
-      <c r="L230" s="69"/>
+      <c r="E230" s="97"/>
+      <c r="F230" s="97"/>
+      <c r="G230" s="97"/>
+      <c r="H230" s="97"/>
+      <c r="I230" s="97"/>
+      <c r="J230" s="97"/>
+      <c r="K230" s="97"/>
+      <c r="L230" s="98"/>
     </row>
     <row r="231" spans="4:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D231" s="54" t="s">
@@ -8109,88 +8109,88 @@
       <c r="L243" s="51"/>
     </row>
     <row r="244" spans="4:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D244" s="86" t="s">
+      <c r="D244" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E244" s="86"/>
-      <c r="F244" s="86"/>
-      <c r="G244" s="86"/>
-      <c r="H244" s="86"/>
-      <c r="I244" s="86"/>
-      <c r="J244" s="86"/>
-      <c r="K244" s="86"/>
-      <c r="L244" s="86"/>
-      <c r="M244" s="86"/>
-      <c r="N244" s="86"/>
-      <c r="O244" s="86"/>
+      <c r="E244" s="71"/>
+      <c r="F244" s="71"/>
+      <c r="G244" s="71"/>
+      <c r="H244" s="71"/>
+      <c r="I244" s="71"/>
+      <c r="J244" s="71"/>
+      <c r="K244" s="71"/>
+      <c r="L244" s="71"/>
+      <c r="M244" s="71"/>
+      <c r="N244" s="71"/>
+      <c r="O244" s="71"/>
     </row>
     <row r="245" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D245" s="70" t="s">
+      <c r="D245" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E245" s="70" t="s">
+      <c r="E245" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F245" s="70" t="s">
+      <c r="F245" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="70" t="s">
+      <c r="G245" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H245" s="70" t="s">
+      <c r="H245" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I245" s="70" t="s">
+      <c r="I245" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="J245" s="70" t="s">
+      <c r="J245" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="K245" s="70" t="s">
+      <c r="K245" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="L245" s="70" t="s">
+      <c r="L245" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="M245" s="70" t="s">
+      <c r="M245" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="N245" s="75" t="s">
+      <c r="N245" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="O245" s="75" t="s">
+      <c r="O245" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="246" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D246" s="71"/>
-      <c r="E246" s="71"/>
-      <c r="F246" s="71"/>
-      <c r="G246" s="71"/>
-      <c r="H246" s="71"/>
-      <c r="I246" s="71"/>
-      <c r="J246" s="71"/>
-      <c r="K246" s="71"/>
-      <c r="L246" s="71"/>
-      <c r="M246" s="71"/>
-      <c r="N246" s="71"/>
-      <c r="O246" s="71"/>
+      <c r="D246" s="70"/>
+      <c r="E246" s="70"/>
+      <c r="F246" s="70"/>
+      <c r="G246" s="70"/>
+      <c r="H246" s="70"/>
+      <c r="I246" s="70"/>
+      <c r="J246" s="70"/>
+      <c r="K246" s="70"/>
+      <c r="L246" s="70"/>
+      <c r="M246" s="70"/>
+      <c r="N246" s="70"/>
+      <c r="O246" s="70"/>
     </row>
     <row r="247" spans="4:15" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D247" s="66">
+      <c r="D247" s="95">
         <v>2017</v>
       </c>
-      <c r="E247" s="66"/>
-      <c r="F247" s="66"/>
-      <c r="G247" s="66"/>
-      <c r="H247" s="66"/>
-      <c r="I247" s="66"/>
-      <c r="J247" s="66"/>
-      <c r="K247" s="66"/>
-      <c r="L247" s="66"/>
-      <c r="M247" s="66"/>
-      <c r="N247" s="66"/>
-      <c r="O247" s="66"/>
+      <c r="E247" s="95"/>
+      <c r="F247" s="95"/>
+      <c r="G247" s="95"/>
+      <c r="H247" s="95"/>
+      <c r="I247" s="95"/>
+      <c r="J247" s="95"/>
+      <c r="K247" s="95"/>
+      <c r="L247" s="95"/>
+      <c r="M247" s="95"/>
+      <c r="N247" s="95"/>
+      <c r="O247" s="95"/>
     </row>
     <row r="248" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D248" s="63" t="s">
@@ -8649,20 +8649,20 @@
       </c>
     </row>
     <row r="260" spans="4:15" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D260" s="66">
+      <c r="D260" s="95">
         <v>2018</v>
       </c>
-      <c r="E260" s="66"/>
-      <c r="F260" s="66"/>
-      <c r="G260" s="66"/>
-      <c r="H260" s="66"/>
-      <c r="I260" s="66"/>
-      <c r="J260" s="66"/>
-      <c r="K260" s="66"/>
-      <c r="L260" s="66"/>
-      <c r="M260" s="66"/>
-      <c r="N260" s="66"/>
-      <c r="O260" s="66"/>
+      <c r="E260" s="95"/>
+      <c r="F260" s="95"/>
+      <c r="G260" s="95"/>
+      <c r="H260" s="95"/>
+      <c r="I260" s="95"/>
+      <c r="J260" s="95"/>
+      <c r="K260" s="95"/>
+      <c r="L260" s="95"/>
+      <c r="M260" s="95"/>
+      <c r="N260" s="95"/>
+      <c r="O260" s="95"/>
     </row>
     <row r="261" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D261" s="63" t="s">
@@ -9121,20 +9121,20 @@
       </c>
     </row>
     <row r="273" spans="4:15" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D273" s="66">
+      <c r="D273" s="95">
         <v>2019</v>
       </c>
-      <c r="E273" s="66"/>
-      <c r="F273" s="66"/>
-      <c r="G273" s="66"/>
-      <c r="H273" s="66"/>
-      <c r="I273" s="66"/>
-      <c r="J273" s="66"/>
-      <c r="K273" s="66"/>
-      <c r="L273" s="66"/>
-      <c r="M273" s="66"/>
-      <c r="N273" s="66"/>
-      <c r="O273" s="66"/>
+      <c r="E273" s="95"/>
+      <c r="F273" s="95"/>
+      <c r="G273" s="95"/>
+      <c r="H273" s="95"/>
+      <c r="I273" s="95"/>
+      <c r="J273" s="95"/>
+      <c r="K273" s="95"/>
+      <c r="L273" s="95"/>
+      <c r="M273" s="95"/>
+      <c r="N273" s="95"/>
+      <c r="O273" s="95"/>
     </row>
     <row r="274" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D274" s="63" t="s">
@@ -9593,20 +9593,20 @@
       </c>
     </row>
     <row r="286" spans="4:15" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D286" s="66">
+      <c r="D286" s="95">
         <v>2020</v>
       </c>
-      <c r="E286" s="66"/>
-      <c r="F286" s="66"/>
-      <c r="G286" s="66"/>
-      <c r="H286" s="66"/>
-      <c r="I286" s="66"/>
-      <c r="J286" s="66"/>
-      <c r="K286" s="66"/>
-      <c r="L286" s="66"/>
-      <c r="M286" s="66"/>
-      <c r="N286" s="66"/>
-      <c r="O286" s="66"/>
+      <c r="E286" s="95"/>
+      <c r="F286" s="95"/>
+      <c r="G286" s="95"/>
+      <c r="H286" s="95"/>
+      <c r="I286" s="95"/>
+      <c r="J286" s="95"/>
+      <c r="K286" s="95"/>
+      <c r="L286" s="95"/>
+      <c r="M286" s="95"/>
+      <c r="N286" s="95"/>
+      <c r="O286" s="95"/>
     </row>
     <row r="287" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D287" s="63" t="s">
@@ -10065,20 +10065,20 @@
       </c>
     </row>
     <row r="299" spans="4:15" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="D299" s="66">
+      <c r="D299" s="95">
         <v>2021</v>
       </c>
-      <c r="E299" s="66"/>
-      <c r="F299" s="66"/>
-      <c r="G299" s="66"/>
-      <c r="H299" s="66"/>
-      <c r="I299" s="66"/>
-      <c r="J299" s="66"/>
-      <c r="K299" s="66"/>
-      <c r="L299" s="66"/>
-      <c r="M299" s="66"/>
-      <c r="N299" s="66"/>
-      <c r="O299" s="66"/>
+      <c r="E299" s="95"/>
+      <c r="F299" s="95"/>
+      <c r="G299" s="95"/>
+      <c r="H299" s="95"/>
+      <c r="I299" s="95"/>
+      <c r="J299" s="95"/>
+      <c r="K299" s="95"/>
+      <c r="L299" s="95"/>
+      <c r="M299" s="95"/>
+      <c r="N299" s="95"/>
+      <c r="O299" s="95"/>
     </row>
     <row r="300" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D300" s="63" t="s">
@@ -10384,31 +10384,149 @@
         <v>11185</v>
       </c>
     </row>
-    <row r="308" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D308" s="51"/>
-      <c r="E308" s="51"/>
-      <c r="F308" s="51"/>
-      <c r="G308" s="51"/>
-      <c r="H308" s="51"/>
-      <c r="I308" s="51"/>
-      <c r="J308" s="51"/>
-      <c r="K308" s="51"/>
-      <c r="L308" s="51"/>
-    </row>
-    <row r="309" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="H309" s="39" t="s">
+    <row r="308" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D308" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" s="64">
+        <v>177218.43899999995</v>
+      </c>
+      <c r="F308" s="64">
+        <v>245985.04099999997</v>
+      </c>
+      <c r="G308" s="64">
+        <v>-68766.602000000014</v>
+      </c>
+      <c r="H308" s="64">
+        <v>92966.699999999983</v>
+      </c>
+      <c r="I308" s="64">
+        <v>96615.599999999991</v>
+      </c>
+      <c r="J308" s="64">
+        <v>99276.5</v>
+      </c>
+      <c r="K308" s="64">
+        <v>-2660.9000000000037</v>
+      </c>
+      <c r="L308" s="64">
+        <v>-13325.6</v>
+      </c>
+      <c r="M308" s="64">
+        <v>852.70000000000027</v>
+      </c>
+      <c r="N308" s="64">
+        <v>0</v>
+      </c>
+      <c r="O308" s="64">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="309" spans="4:15" s="65" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D309" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E309" s="64">
+        <v>155125.65100000007</v>
+      </c>
+      <c r="F309" s="64">
+        <v>252058.68397433998</v>
+      </c>
+      <c r="G309" s="64">
+        <v>-96933.032974339905</v>
+      </c>
+      <c r="H309" s="64">
+        <v>-13590.699999999979</v>
+      </c>
+      <c r="I309" s="64">
+        <v>-1387.3999999999751</v>
+      </c>
+      <c r="J309" s="64">
+        <v>2032.9000000000233</v>
+      </c>
+      <c r="K309" s="64">
+        <v>-3420.2999999999984</v>
+      </c>
+      <c r="L309" s="64">
+        <v>-21500</v>
+      </c>
+      <c r="M309" s="64">
+        <v>-103.40000000000009</v>
+      </c>
+      <c r="N309" s="64">
+        <v>0</v>
+      </c>
+      <c r="O309" s="64">
+        <v>9400.0999999999985</v>
+      </c>
+    </row>
+    <row r="310" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D310" s="51"/>
+      <c r="E310" s="51"/>
+      <c r="F310" s="51"/>
+      <c r="G310" s="51"/>
+      <c r="H310" s="51"/>
+      <c r="I310" s="51"/>
+      <c r="J310" s="51"/>
+      <c r="K310" s="51"/>
+      <c r="L310" s="51"/>
+    </row>
+    <row r="311" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="H311" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I309" s="40" t="s">
+      <c r="I311" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D310" s="39"/>
-      <c r="E310" s="40"/>
+    <row r="312" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D312" s="39"/>
+      <c r="E312" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="D299:O299"/>
+    <mergeCell ref="D230:L230"/>
+    <mergeCell ref="D178:L178"/>
+    <mergeCell ref="D191:L191"/>
+    <mergeCell ref="D204:L204"/>
+    <mergeCell ref="D286:O286"/>
+    <mergeCell ref="D260:O260"/>
+    <mergeCell ref="D247:O247"/>
+    <mergeCell ref="N245:N246"/>
+    <mergeCell ref="O245:O246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="K245:K246"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="L245:L246"/>
+    <mergeCell ref="D273:O273"/>
+    <mergeCell ref="D217:L217"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="D126:L126"/>
+    <mergeCell ref="D113:L113"/>
+    <mergeCell ref="D100:L100"/>
+    <mergeCell ref="M245:M246"/>
+    <mergeCell ref="J245:J246"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="D165:L165"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="D96:L96"/>
+    <mergeCell ref="D139:L139"/>
+    <mergeCell ref="D152:L152"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="D97:L97"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="H245:H246"/>
     <mergeCell ref="I245:I246"/>
@@ -10425,48 +10543,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="D83:J83"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="D165:L165"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="D96:L96"/>
-    <mergeCell ref="D139:L139"/>
-    <mergeCell ref="D152:L152"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="D97:L97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="D126:L126"/>
-    <mergeCell ref="D113:L113"/>
-    <mergeCell ref="D100:L100"/>
-    <mergeCell ref="D178:L178"/>
-    <mergeCell ref="D191:L191"/>
-    <mergeCell ref="D204:L204"/>
-    <mergeCell ref="D286:O286"/>
-    <mergeCell ref="D260:O260"/>
-    <mergeCell ref="D247:O247"/>
-    <mergeCell ref="N245:N246"/>
-    <mergeCell ref="O245:O246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="K245:K246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="L245:L246"/>
-    <mergeCell ref="D273:O273"/>
-    <mergeCell ref="D217:L217"/>
-    <mergeCell ref="M245:M246"/>
-    <mergeCell ref="J245:J246"/>
-    <mergeCell ref="D299:O299"/>
-    <mergeCell ref="D230:L230"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.31" footer="0.31"/>
